--- a/output/StructureDefinition-patient-ehmis.xlsx
+++ b/output/StructureDefinition-patient-ehmis.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Patient Profile for EHMIS</t>
+    <t>Patient for EHMIS</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T10:18:47+05:45</t>
+    <t>2025-08-08T09:35:18+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Integrated Health Information Management Section (https://hmis.gov.np, it@hmis.gov.np)</t>
   </si>
   <si>
-    <t>RC Poudel (rcpoudel@amakomaya.com(Work))</t>
+    <t>RC Poudel (rcpoudel@amakomaya.com, rmchndrapdl@gmail.com, ph: +977-9851341921)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
